--- a/заказы/статистика филиалы/2023/12,23/21,12,23 ЗПФ/дв 21,12,23 днрсч зпф от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/12,23/21,12,23 ЗПФ/дв 21,12,23 днрсч зпф от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\21,12,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\12,23\21,12,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469AF597-57E2-462B-87D1-B78E3BB8ECE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4584C5D4-D2D9-413C-A724-18D91842EA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,6 +378,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -636,6 +638,14 @@
           <cell r="A1" t="str">
             <v>Период: 07.12.2023 - 14.12.2023</v>
           </cell>
+          <cell r="B1"/>
+          <cell r="C1"/>
+          <cell r="D1"/>
+        </row>
+        <row r="2">
+          <cell r="B2"/>
+          <cell r="C2"/>
+          <cell r="D2"/>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -650,6 +660,9 @@
           <cell r="D3" t="str">
             <v>Количество</v>
           </cell>
+          <cell r="E3"/>
+          <cell r="F3"/>
+          <cell r="G3"/>
           <cell r="H3" t="str">
             <v>крат</v>
           </cell>
@@ -680,6 +693,7 @@
           <cell r="Q3" t="str">
             <v xml:space="preserve">ЗАКАЗ </v>
           </cell>
+          <cell r="R3"/>
           <cell r="S3" t="str">
             <v>кон ост</v>
           </cell>
@@ -701,11 +715,14 @@
           <cell r="Y3" t="str">
             <v>вес</v>
           </cell>
+          <cell r="Z3"/>
           <cell r="AA3" t="str">
             <v>заказ кор.</v>
           </cell>
         </row>
         <row r="4">
+          <cell r="A4"/>
+          <cell r="B4"/>
           <cell r="C4" t="str">
             <v>АКЦИИ</v>
           </cell>
@@ -721,23 +738,46 @@
           <cell r="G4" t="str">
             <v>Конечный остаток</v>
           </cell>
+          <cell r="H4"/>
+          <cell r="I4"/>
+          <cell r="J4"/>
+          <cell r="K4"/>
+          <cell r="L4"/>
           <cell r="M4" t="str">
             <v>в дороге</v>
           </cell>
+          <cell r="N4"/>
+          <cell r="O4"/>
+          <cell r="P4"/>
           <cell r="Q4" t="str">
             <v>от филиала</v>
           </cell>
           <cell r="R4" t="str">
             <v>комментарий филиала</v>
           </cell>
+          <cell r="S4"/>
+          <cell r="T4"/>
+          <cell r="U4"/>
+          <cell r="V4"/>
+          <cell r="W4"/>
+          <cell r="X4"/>
+          <cell r="Y4"/>
+          <cell r="Z4"/>
+          <cell r="AA4"/>
         </row>
         <row r="5">
+          <cell r="A5"/>
+          <cell r="B5"/>
+          <cell r="C5"/>
+          <cell r="D5"/>
+          <cell r="E5"/>
           <cell r="F5">
             <v>3576.3999999999996</v>
           </cell>
           <cell r="G5">
             <v>5819.4</v>
           </cell>
+          <cell r="H5"/>
           <cell r="I5">
             <v>3629.5000000000005</v>
           </cell>
@@ -765,6 +805,9 @@
           <cell r="Q5">
             <v>0</v>
           </cell>
+          <cell r="R5"/>
+          <cell r="S5"/>
+          <cell r="T5"/>
           <cell r="U5">
             <v>587.86000000000013</v>
           </cell>
@@ -774,6 +817,7 @@
           <cell r="W5">
             <v>801.94200000000001</v>
           </cell>
+          <cell r="X5"/>
           <cell r="Y5">
             <v>1002.2</v>
           </cell>
@@ -791,9 +835,12 @@
           <cell r="B6" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C6"/>
           <cell r="D6">
             <v>30</v>
           </cell>
+          <cell r="E6"/>
+          <cell r="F6"/>
           <cell r="G6">
             <v>30</v>
           </cell>
@@ -809,6 +856,8 @@
           <cell r="O6">
             <v>0</v>
           </cell>
+          <cell r="P6"/>
+          <cell r="Q6"/>
           <cell r="S6" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -844,9 +893,11 @@
           <cell r="B7" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C7"/>
           <cell r="D7">
             <v>5</v>
           </cell>
+          <cell r="E7"/>
           <cell r="F7">
             <v>3</v>
           </cell>
@@ -865,6 +916,8 @@
           <cell r="O7">
             <v>0.6</v>
           </cell>
+          <cell r="P7"/>
+          <cell r="Q7"/>
           <cell r="S7">
             <v>1.6666666666666667</v>
           </cell>
@@ -897,6 +950,7 @@
           <cell r="B8" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C8"/>
           <cell r="D8">
             <v>83</v>
           </cell>
@@ -924,6 +978,8 @@
           <cell r="O8">
             <v>9.4</v>
           </cell>
+          <cell r="P8"/>
+          <cell r="Q8"/>
           <cell r="S8">
             <v>16.170212765957448</v>
           </cell>
@@ -986,6 +1042,8 @@
           <cell r="O9">
             <v>13.6</v>
           </cell>
+          <cell r="P9"/>
+          <cell r="Q9"/>
           <cell r="S9">
             <v>13.602941176470589</v>
           </cell>
@@ -1051,6 +1109,7 @@
           <cell r="P10">
             <v>60</v>
           </cell>
+          <cell r="Q10"/>
           <cell r="S10">
             <v>12.616279069767442</v>
           </cell>
@@ -1083,9 +1142,11 @@
           <cell r="B11" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C11"/>
           <cell r="D11">
             <v>403</v>
           </cell>
+          <cell r="E11"/>
           <cell r="F11">
             <v>45</v>
           </cell>
@@ -1107,6 +1168,8 @@
           <cell r="O11">
             <v>9</v>
           </cell>
+          <cell r="P11"/>
+          <cell r="Q11"/>
           <cell r="S11">
             <v>34.111111111111114</v>
           </cell>
@@ -1139,6 +1202,7 @@
           <cell r="B12" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C12"/>
           <cell r="D12">
             <v>36</v>
           </cell>
@@ -1169,6 +1233,7 @@
           <cell r="P12">
             <v>12</v>
           </cell>
+          <cell r="Q12"/>
           <cell r="S12">
             <v>12.328519855595667</v>
           </cell>
@@ -1201,6 +1266,11 @@
           <cell r="B13" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C13"/>
+          <cell r="D13"/>
+          <cell r="E13"/>
+          <cell r="F13"/>
+          <cell r="G13"/>
           <cell r="H13">
             <v>1</v>
           </cell>
@@ -1216,6 +1286,7 @@
           <cell r="P13">
             <v>37</v>
           </cell>
+          <cell r="Q13"/>
           <cell r="S13" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1248,12 +1319,15 @@
           <cell r="B14" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C14"/>
           <cell r="D14">
             <v>10</v>
           </cell>
+          <cell r="E14"/>
           <cell r="F14">
             <v>5.5</v>
           </cell>
+          <cell r="G14"/>
           <cell r="H14">
             <v>0</v>
           </cell>
@@ -1269,6 +1343,8 @@
           <cell r="O14">
             <v>1.1000000000000001</v>
           </cell>
+          <cell r="P14"/>
+          <cell r="Q14"/>
           <cell r="S14">
             <v>0</v>
           </cell>
@@ -1301,6 +1377,7 @@
           <cell r="B15" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C15"/>
           <cell r="D15">
             <v>21.6</v>
           </cell>
@@ -1310,6 +1387,7 @@
           <cell r="F15">
             <v>18.5</v>
           </cell>
+          <cell r="G15"/>
           <cell r="H15">
             <v>0</v>
           </cell>
@@ -1325,6 +1403,8 @@
           <cell r="O15">
             <v>3.7</v>
           </cell>
+          <cell r="P15"/>
+          <cell r="Q15"/>
           <cell r="S15">
             <v>0</v>
           </cell>
@@ -1357,9 +1437,11 @@
           <cell r="B16" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C16"/>
           <cell r="D16">
             <v>88.8</v>
           </cell>
+          <cell r="E16"/>
           <cell r="F16">
             <v>33.299999999999997</v>
           </cell>
@@ -1384,6 +1466,7 @@
           <cell r="P16">
             <v>37</v>
           </cell>
+          <cell r="Q16"/>
           <cell r="S16">
             <v>12.222222222222225</v>
           </cell>
@@ -1416,12 +1499,15 @@
           <cell r="B17" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C17"/>
           <cell r="D17">
             <v>27.5</v>
           </cell>
+          <cell r="E17"/>
           <cell r="F17">
             <v>22</v>
           </cell>
+          <cell r="G17"/>
           <cell r="H17">
             <v>0</v>
           </cell>
@@ -1437,6 +1523,8 @@
           <cell r="O17">
             <v>4.4000000000000004</v>
           </cell>
+          <cell r="P17"/>
+          <cell r="Q17"/>
           <cell r="S17">
             <v>0</v>
           </cell>
@@ -1469,6 +1557,7 @@
           <cell r="B18" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C18"/>
           <cell r="D18">
             <v>101</v>
           </cell>
@@ -1499,6 +1588,7 @@
           <cell r="P18">
             <v>36</v>
           </cell>
+          <cell r="Q18"/>
           <cell r="S18">
             <v>13.181818181818182</v>
           </cell>
@@ -1531,9 +1621,12 @@
           <cell r="B19" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C19"/>
           <cell r="D19">
             <v>12</v>
           </cell>
+          <cell r="E19"/>
+          <cell r="F19"/>
           <cell r="G19">
             <v>12</v>
           </cell>
@@ -1552,6 +1645,8 @@
           <cell r="O19">
             <v>0</v>
           </cell>
+          <cell r="P19"/>
+          <cell r="Q19"/>
           <cell r="S19" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1584,6 +1679,7 @@
           <cell r="B20" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C20"/>
           <cell r="D20">
             <v>90</v>
           </cell>
@@ -1611,6 +1707,8 @@
           <cell r="O20">
             <v>8</v>
           </cell>
+          <cell r="P20"/>
+          <cell r="Q20"/>
           <cell r="S20">
             <v>16.5</v>
           </cell>
@@ -1643,9 +1741,12 @@
           <cell r="B21" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C21"/>
           <cell r="D21">
             <v>27</v>
           </cell>
+          <cell r="E21"/>
+          <cell r="F21"/>
           <cell r="G21">
             <v>27</v>
           </cell>
@@ -1661,6 +1762,8 @@
           <cell r="O21">
             <v>0</v>
           </cell>
+          <cell r="P21"/>
+          <cell r="Q21"/>
           <cell r="S21" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1696,12 +1799,15 @@
           <cell r="B22" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C22"/>
           <cell r="D22">
             <v>9</v>
           </cell>
+          <cell r="E22"/>
           <cell r="F22">
             <v>1.8</v>
           </cell>
+          <cell r="G22"/>
           <cell r="H22">
             <v>0</v>
           </cell>
@@ -1717,6 +1823,8 @@
           <cell r="O22">
             <v>0.36</v>
           </cell>
+          <cell r="P22"/>
+          <cell r="Q22"/>
           <cell r="S22">
             <v>0</v>
           </cell>
@@ -1749,9 +1857,13 @@
           <cell r="B23" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C23"/>
           <cell r="D23">
             <v>3.7</v>
           </cell>
+          <cell r="E23"/>
+          <cell r="F23"/>
+          <cell r="G23"/>
           <cell r="H23">
             <v>0</v>
           </cell>
@@ -1767,6 +1879,8 @@
           <cell r="O23">
             <v>0</v>
           </cell>
+          <cell r="P23"/>
+          <cell r="Q23"/>
           <cell r="S23" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1799,6 +1913,7 @@
           <cell r="B24" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C24"/>
           <cell r="D24">
             <v>27</v>
           </cell>
@@ -1829,6 +1944,7 @@
           <cell r="P24">
             <v>36</v>
           </cell>
+          <cell r="Q24"/>
           <cell r="S24">
             <v>6.9999999999999991</v>
           </cell>
@@ -1861,6 +1977,11 @@
           <cell r="B25" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C25"/>
+          <cell r="D25"/>
+          <cell r="E25"/>
+          <cell r="F25"/>
+          <cell r="G25"/>
           <cell r="H25">
             <v>1</v>
           </cell>
@@ -1873,6 +1994,8 @@
           <cell r="O25">
             <v>0</v>
           </cell>
+          <cell r="P25"/>
+          <cell r="Q25"/>
           <cell r="S25" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1905,6 +2028,9 @@
           <cell r="B26" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C26"/>
+          <cell r="D26"/>
+          <cell r="E26"/>
           <cell r="F26">
             <v>5</v>
           </cell>
@@ -1926,6 +2052,8 @@
           <cell r="O26">
             <v>1</v>
           </cell>
+          <cell r="P26"/>
+          <cell r="Q26"/>
           <cell r="S26">
             <v>-5</v>
           </cell>
@@ -1988,6 +2116,8 @@
           <cell r="O27">
             <v>41.8</v>
           </cell>
+          <cell r="P27"/>
+          <cell r="Q27"/>
           <cell r="S27">
             <v>13.564593301435407</v>
           </cell>
@@ -2020,6 +2150,7 @@
           <cell r="B28" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C28"/>
           <cell r="D28">
             <v>124</v>
           </cell>
@@ -2050,6 +2181,7 @@
           <cell r="P28">
             <v>60</v>
           </cell>
+          <cell r="Q28"/>
           <cell r="S28">
             <v>12.150943396226415</v>
           </cell>
@@ -2082,9 +2214,11 @@
           <cell r="B29" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C29"/>
           <cell r="D29">
             <v>6</v>
           </cell>
+          <cell r="E29"/>
           <cell r="F29">
             <v>6</v>
           </cell>
@@ -2106,6 +2240,8 @@
           <cell r="O29">
             <v>1.2</v>
           </cell>
+          <cell r="P29"/>
+          <cell r="Q29"/>
           <cell r="S29">
             <v>-5</v>
           </cell>
@@ -2138,6 +2274,7 @@
           <cell r="B30" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C30"/>
           <cell r="D30">
             <v>-3</v>
           </cell>
@@ -2165,6 +2302,8 @@
           <cell r="O30">
             <v>19.2</v>
           </cell>
+          <cell r="P30"/>
+          <cell r="Q30"/>
           <cell r="S30">
             <v>14.6875</v>
           </cell>
@@ -2197,12 +2336,15 @@
           <cell r="B31" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C31"/>
           <cell r="D31">
             <v>4</v>
           </cell>
+          <cell r="E31"/>
           <cell r="F31">
             <v>4</v>
           </cell>
+          <cell r="G31"/>
           <cell r="H31">
             <v>0</v>
           </cell>
@@ -2218,6 +2360,8 @@
           <cell r="O31">
             <v>0.8</v>
           </cell>
+          <cell r="P31"/>
+          <cell r="Q31"/>
           <cell r="S31">
             <v>0</v>
           </cell>
@@ -2250,6 +2394,7 @@
           <cell r="B32" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C32"/>
           <cell r="D32">
             <v>47</v>
           </cell>
@@ -2280,6 +2425,7 @@
           <cell r="P32">
             <v>16</v>
           </cell>
+          <cell r="Q32"/>
           <cell r="S32">
             <v>12.575757575757576</v>
           </cell>
@@ -2312,9 +2458,13 @@
           <cell r="B33" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C33"/>
           <cell r="D33">
             <v>1</v>
           </cell>
+          <cell r="E33"/>
+          <cell r="F33"/>
+          <cell r="G33"/>
           <cell r="H33">
             <v>0</v>
           </cell>
@@ -2330,6 +2480,8 @@
           <cell r="O33">
             <v>0</v>
           </cell>
+          <cell r="P33"/>
+          <cell r="Q33"/>
           <cell r="S33" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -2362,6 +2514,7 @@
           <cell r="B34" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C34"/>
           <cell r="D34">
             <v>9</v>
           </cell>
@@ -2386,6 +2539,8 @@
           <cell r="O34">
             <v>0.4</v>
           </cell>
+          <cell r="P34"/>
+          <cell r="Q34"/>
           <cell r="S34">
             <v>20</v>
           </cell>
@@ -2448,6 +2603,8 @@
           <cell r="O35">
             <v>3.8</v>
           </cell>
+          <cell r="P35"/>
+          <cell r="Q35"/>
           <cell r="S35">
             <v>20.263157894736842</v>
           </cell>
@@ -2480,12 +2637,14 @@
           <cell r="B36" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C36"/>
           <cell r="D36">
             <v>11</v>
           </cell>
           <cell r="E36">
             <v>1</v>
           </cell>
+          <cell r="F36"/>
           <cell r="G36">
             <v>12</v>
           </cell>
@@ -2501,6 +2660,8 @@
           <cell r="O36">
             <v>0</v>
           </cell>
+          <cell r="P36"/>
+          <cell r="Q36"/>
           <cell r="S36" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -2536,6 +2697,7 @@
           <cell r="B37" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C37"/>
           <cell r="D37">
             <v>141</v>
           </cell>
@@ -2566,6 +2728,7 @@
           <cell r="P37">
             <v>8</v>
           </cell>
+          <cell r="Q37"/>
           <cell r="S37">
             <v>12.5</v>
           </cell>
@@ -2598,9 +2761,11 @@
           <cell r="B38" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C38"/>
           <cell r="D38">
             <v>151</v>
           </cell>
+          <cell r="E38"/>
           <cell r="F38">
             <v>8</v>
           </cell>
@@ -2622,6 +2787,8 @@
           <cell r="O38">
             <v>1.6</v>
           </cell>
+          <cell r="P38"/>
+          <cell r="Q38"/>
           <cell r="S38">
             <v>83.125</v>
           </cell>
@@ -2684,6 +2851,8 @@
           <cell r="O39">
             <v>12.2</v>
           </cell>
+          <cell r="P39"/>
+          <cell r="Q39"/>
           <cell r="S39">
             <v>17.049180327868854</v>
           </cell>
@@ -2716,9 +2885,11 @@
           <cell r="B40" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C40"/>
           <cell r="D40">
             <v>291</v>
           </cell>
+          <cell r="E40"/>
           <cell r="F40">
             <v>15</v>
           </cell>
@@ -2740,6 +2911,8 @@
           <cell r="O40">
             <v>3</v>
           </cell>
+          <cell r="P40"/>
+          <cell r="Q40"/>
           <cell r="S40">
             <v>90</v>
           </cell>
@@ -2772,6 +2945,7 @@
           <cell r="B41" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C41"/>
           <cell r="D41">
             <v>470</v>
           </cell>
@@ -2802,6 +2976,7 @@
           <cell r="P41">
             <v>300</v>
           </cell>
+          <cell r="Q41"/>
           <cell r="S41">
             <v>12.558869701726845</v>
           </cell>
@@ -2867,6 +3042,7 @@
           <cell r="P42">
             <v>36</v>
           </cell>
+          <cell r="Q42"/>
           <cell r="S42">
             <v>12.042553191489361</v>
           </cell>
@@ -2899,9 +3075,11 @@
           <cell r="B43" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C43"/>
           <cell r="D43">
             <v>211</v>
           </cell>
+          <cell r="E43"/>
           <cell r="F43">
             <v>30</v>
           </cell>
@@ -2923,6 +3101,8 @@
           <cell r="O43">
             <v>6</v>
           </cell>
+          <cell r="P43"/>
+          <cell r="Q43"/>
           <cell r="S43">
             <v>28.666666666666668</v>
           </cell>
@@ -2955,9 +3135,11 @@
           <cell r="B44" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C44"/>
           <cell r="D44">
             <v>115</v>
           </cell>
+          <cell r="E44"/>
           <cell r="F44">
             <v>25</v>
           </cell>
@@ -2979,6 +3161,8 @@
           <cell r="O44">
             <v>5</v>
           </cell>
+          <cell r="P44"/>
+          <cell r="Q44"/>
           <cell r="S44">
             <v>18</v>
           </cell>
@@ -3011,9 +3195,12 @@
           <cell r="B45" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C45"/>
           <cell r="D45">
             <v>24</v>
           </cell>
+          <cell r="E45"/>
+          <cell r="F45"/>
           <cell r="G45">
             <v>24</v>
           </cell>
@@ -3029,6 +3216,8 @@
           <cell r="O45">
             <v>0</v>
           </cell>
+          <cell r="P45"/>
+          <cell r="Q45"/>
           <cell r="S45" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -3064,12 +3253,15 @@
           <cell r="B46" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C46"/>
           <cell r="D46">
             <v>15</v>
           </cell>
+          <cell r="E46"/>
           <cell r="F46">
             <v>10</v>
           </cell>
+          <cell r="G46"/>
           <cell r="H46">
             <v>0</v>
           </cell>
@@ -3085,6 +3277,8 @@
           <cell r="O46">
             <v>2</v>
           </cell>
+          <cell r="P46"/>
+          <cell r="Q46"/>
           <cell r="S46">
             <v>0</v>
           </cell>
@@ -3117,6 +3311,7 @@
           <cell r="B47" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C47"/>
           <cell r="D47">
             <v>188</v>
           </cell>
@@ -3144,6 +3339,8 @@
           <cell r="O47">
             <v>4.2</v>
           </cell>
+          <cell r="P47"/>
+          <cell r="Q47"/>
           <cell r="S47">
             <v>39.285714285714285</v>
           </cell>
@@ -3182,6 +3379,7 @@
           <cell r="D48">
             <v>332</v>
           </cell>
+          <cell r="E48"/>
           <cell r="F48">
             <v>68</v>
           </cell>
@@ -3203,6 +3401,8 @@
           <cell r="O48">
             <v>13.6</v>
           </cell>
+          <cell r="P48"/>
+          <cell r="Q48"/>
           <cell r="S48">
             <v>15.073529411764707</v>
           </cell>
@@ -3235,6 +3435,7 @@
           <cell r="B49" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C49"/>
           <cell r="D49">
             <v>201</v>
           </cell>
@@ -3262,6 +3463,8 @@
           <cell r="O49">
             <v>1.6</v>
           </cell>
+          <cell r="P49"/>
+          <cell r="Q49"/>
           <cell r="S49">
             <v>121.25</v>
           </cell>
@@ -3300,6 +3503,7 @@
           <cell r="D50">
             <v>145</v>
           </cell>
+          <cell r="E50"/>
           <cell r="F50">
             <v>83</v>
           </cell>
@@ -3324,6 +3528,7 @@
           <cell r="P50">
             <v>96</v>
           </cell>
+          <cell r="Q50"/>
           <cell r="S50">
             <v>12.710843373493974</v>
           </cell>
@@ -3356,6 +3561,7 @@
           <cell r="B51" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C51"/>
           <cell r="D51">
             <v>80</v>
           </cell>
@@ -3383,6 +3589,8 @@
           <cell r="O51">
             <v>2.6</v>
           </cell>
+          <cell r="P51"/>
+          <cell r="Q51"/>
           <cell r="S51">
             <v>33.46153846153846</v>
           </cell>
@@ -3415,6 +3623,7 @@
           <cell r="B52" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C52"/>
           <cell r="D52">
             <v>191</v>
           </cell>
@@ -3442,6 +3651,8 @@
           <cell r="O52">
             <v>9.1999999999999993</v>
           </cell>
+          <cell r="P52"/>
+          <cell r="Q52"/>
           <cell r="S52">
             <v>15.32608695652174</v>
           </cell>
@@ -3474,6 +3685,7 @@
           <cell r="B53" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C53"/>
           <cell r="D53">
             <v>335</v>
           </cell>
@@ -3504,6 +3716,7 @@
           <cell r="P53">
             <v>200</v>
           </cell>
+          <cell r="Q53"/>
           <cell r="S53">
             <v>13.243243243243244</v>
           </cell>
@@ -3536,9 +3749,12 @@
           <cell r="B54" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C54"/>
           <cell r="D54">
             <v>312</v>
           </cell>
+          <cell r="E54"/>
+          <cell r="F54"/>
           <cell r="G54">
             <v>312</v>
           </cell>
@@ -3554,6 +3770,8 @@
           <cell r="O54">
             <v>0</v>
           </cell>
+          <cell r="P54"/>
+          <cell r="Q54"/>
           <cell r="S54" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -3589,9 +3807,12 @@
           <cell r="B55" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C55"/>
           <cell r="D55">
             <v>71</v>
           </cell>
+          <cell r="E55"/>
+          <cell r="F55"/>
           <cell r="G55">
             <v>71</v>
           </cell>
@@ -3607,6 +3828,8 @@
           <cell r="O55">
             <v>0</v>
           </cell>
+          <cell r="P55"/>
+          <cell r="Q55"/>
           <cell r="S55" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -3642,9 +3865,12 @@
           <cell r="B56" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C56"/>
           <cell r="D56">
             <v>70</v>
           </cell>
+          <cell r="E56"/>
+          <cell r="F56"/>
           <cell r="G56">
             <v>70</v>
           </cell>
@@ -3660,6 +3886,8 @@
           <cell r="O56">
             <v>0</v>
           </cell>
+          <cell r="P56"/>
+          <cell r="Q56"/>
           <cell r="S56" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -3695,9 +3923,11 @@
           <cell r="B57" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C57"/>
           <cell r="D57">
             <v>60.3</v>
           </cell>
+          <cell r="E57"/>
           <cell r="F57">
             <v>15</v>
           </cell>
@@ -3719,6 +3949,8 @@
           <cell r="O57">
             <v>3</v>
           </cell>
+          <cell r="P57"/>
+          <cell r="Q57"/>
           <cell r="S57">
             <v>8.3333333333333339</v>
           </cell>
@@ -3751,9 +3983,12 @@
           <cell r="B58" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C58"/>
           <cell r="D58">
             <v>76</v>
           </cell>
+          <cell r="E58"/>
+          <cell r="F58"/>
           <cell r="G58">
             <v>76</v>
           </cell>
@@ -3769,6 +4004,8 @@
           <cell r="O58">
             <v>0</v>
           </cell>
+          <cell r="P58"/>
+          <cell r="Q58"/>
           <cell r="S58" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -3804,6 +4041,7 @@
           <cell r="B59" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C59"/>
           <cell r="D59">
             <v>87</v>
           </cell>
@@ -3831,6 +4069,8 @@
           <cell r="O59">
             <v>1.94</v>
           </cell>
+          <cell r="P59"/>
+          <cell r="Q59"/>
           <cell r="S59">
             <v>52.577319587628864</v>
           </cell>
@@ -3863,9 +4103,11 @@
           <cell r="B60" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C60"/>
           <cell r="D60">
             <v>60</v>
           </cell>
+          <cell r="E60"/>
           <cell r="F60">
             <v>3</v>
           </cell>
@@ -3887,6 +4129,8 @@
           <cell r="O60">
             <v>0.6</v>
           </cell>
+          <cell r="P60"/>
+          <cell r="Q60"/>
           <cell r="S60">
             <v>75</v>
           </cell>
@@ -3919,12 +4163,15 @@
           <cell r="B61" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C61"/>
           <cell r="D61">
             <v>35</v>
           </cell>
+          <cell r="E61"/>
           <cell r="F61">
             <v>25</v>
           </cell>
+          <cell r="G61"/>
           <cell r="H61">
             <v>0</v>
           </cell>
@@ -3940,6 +4187,8 @@
           <cell r="O61">
             <v>5</v>
           </cell>
+          <cell r="P61"/>
+          <cell r="Q61"/>
           <cell r="S61">
             <v>0</v>
           </cell>
@@ -3972,9 +4221,11 @@
           <cell r="B62" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C62"/>
           <cell r="D62">
             <v>296</v>
           </cell>
+          <cell r="E62"/>
           <cell r="F62">
             <v>80</v>
           </cell>
@@ -3996,6 +4247,8 @@
           <cell r="O62">
             <v>16</v>
           </cell>
+          <cell r="P62"/>
+          <cell r="Q62"/>
           <cell r="S62">
             <v>14</v>
           </cell>
@@ -4028,6 +4281,7 @@
           <cell r="B63" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C63"/>
           <cell r="D63">
             <v>4</v>
           </cell>
@@ -4055,6 +4309,8 @@
           <cell r="O63">
             <v>9</v>
           </cell>
+          <cell r="P63"/>
+          <cell r="Q63"/>
           <cell r="S63">
             <v>13.222222222222221</v>
           </cell>
@@ -4087,6 +4343,7 @@
           <cell r="B64" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C64"/>
           <cell r="D64">
             <v>93</v>
           </cell>
@@ -4114,6 +4371,8 @@
           <cell r="O64">
             <v>12.8</v>
           </cell>
+          <cell r="P64"/>
+          <cell r="Q64"/>
           <cell r="S64">
             <v>13.4375</v>
           </cell>
@@ -4146,9 +4405,11 @@
           <cell r="B65" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C65"/>
           <cell r="D65">
             <v>115.2</v>
           </cell>
+          <cell r="E65"/>
           <cell r="F65">
             <v>42.6</v>
           </cell>
@@ -4173,6 +4434,7 @@
           <cell r="P65">
             <v>36</v>
           </cell>
+          <cell r="Q65"/>
           <cell r="S65">
             <v>12.11267605633803</v>
           </cell>
@@ -4205,9 +4467,11 @@
           <cell r="B66" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C66"/>
           <cell r="D66">
             <v>107</v>
           </cell>
+          <cell r="E66"/>
           <cell r="F66">
             <v>59</v>
           </cell>
@@ -4232,6 +4496,7 @@
           <cell r="P66">
             <v>78</v>
           </cell>
+          <cell r="Q66"/>
           <cell r="S66">
             <v>11.016949152542372</v>
           </cell>
@@ -4264,12 +4529,15 @@
           <cell r="B67" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C67"/>
           <cell r="D67">
             <v>77</v>
           </cell>
+          <cell r="E67"/>
           <cell r="F67">
             <v>71</v>
           </cell>
+          <cell r="G67"/>
           <cell r="H67">
             <v>0.2</v>
           </cell>
@@ -4288,6 +4556,7 @@
           <cell r="P67">
             <v>78</v>
           </cell>
+          <cell r="Q67"/>
           <cell r="S67">
             <v>11.830985915492958</v>
           </cell>
@@ -4353,6 +4622,7 @@
           <cell r="P68">
             <v>12</v>
           </cell>
+          <cell r="Q68"/>
           <cell r="S68">
             <v>11.912751677852349</v>
           </cell>
@@ -4418,6 +4688,7 @@
           <cell r="P69">
             <v>120</v>
           </cell>
+          <cell r="Q69"/>
           <cell r="S69">
             <v>12.434210526315789</v>
           </cell>
@@ -4450,9 +4721,11 @@
           <cell r="B70" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C70"/>
           <cell r="D70">
             <v>97.2</v>
           </cell>
+          <cell r="E70"/>
           <cell r="F70">
             <v>29.7</v>
           </cell>
@@ -4474,6 +4747,8 @@
           <cell r="O70">
             <v>5.9399999999999995</v>
           </cell>
+          <cell r="P70"/>
+          <cell r="Q70"/>
           <cell r="S70">
             <v>18.181818181818183</v>
           </cell>
@@ -4506,6 +4781,7 @@
           <cell r="B71" t="str">
             <v>кг</v>
           </cell>
+          <cell r="C71"/>
           <cell r="D71">
             <v>562.29999999999995</v>
           </cell>
@@ -4536,6 +4812,7 @@
           <cell r="P71">
             <v>100</v>
           </cell>
+          <cell r="Q71"/>
           <cell r="S71">
             <v>15.447154471544716</v>
           </cell>
@@ -4568,6 +4845,7 @@
           <cell r="B72" t="str">
             <v>шт</v>
           </cell>
+          <cell r="C72"/>
           <cell r="D72">
             <v>235</v>
           </cell>
@@ -4595,6 +4873,8 @@
           <cell r="O72">
             <v>9.8000000000000007</v>
           </cell>
+          <cell r="P72"/>
+          <cell r="Q72"/>
           <cell r="S72">
             <v>26.326530612244895</v>
           </cell>
@@ -8307,8 +8587,8 @@
   <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC7" sqref="AC7"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8781,7 +9061,7 @@
         <v>12</v>
       </c>
       <c r="AA8" s="22">
-        <f t="shared" ref="AA8:AA70" si="8">P8/Z8</f>
+        <f t="shared" ref="AA8:AA69" si="8">P8/Z8</f>
         <v>0</v>
       </c>
       <c r="AB8" s="3">
